--- a/bots/crawl_ch/output/vegi_coop_2023-01-25.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-25.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E11" t="n">
         <v>4.5</v>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
         <v>4.5</v>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7794,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9442,7 +9442,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E137" t="n">
         <v>3.5</v>
@@ -9718,7 +9718,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9787,7 +9787,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9852,7 +9852,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E146" t="n">
         <v>4.5</v>
@@ -10319,7 +10319,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10453,7 +10453,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11892,7 +11892,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12168,7 +12168,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12237,7 +12237,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12517,7 +12517,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12586,7 +12586,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -12984,7 +12984,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13386,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14486,7 +14486,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14555,7 +14555,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14689,7 +14689,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14904,7 +14904,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -14969,7 +14969,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15493,7 +15493,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15562,7 +15562,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15834,7 +15834,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -15972,7 +15972,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16248,7 +16248,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16317,7 +16317,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16386,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16593,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16666,7 +16666,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16735,7 +16735,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -16999,7 +16999,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17068,7 +17068,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17210,7 +17210,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17352,7 +17352,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17687,7 +17687,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18044,7 +18044,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18117,7 +18117,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18186,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18324,7 +18324,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18604,7 +18604,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18746,7 +18746,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18811,7 +18811,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18880,7 +18880,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18945,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19152,7 +19152,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19221,7 +19221,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19294,7 +19294,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19367,7 +19367,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19440,7 +19440,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19505,7 +19505,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19574,7 +19574,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19639,7 +19639,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19710,7 +19710,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19856,7 +19856,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19925,7 +19925,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -19998,7 +19998,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20063,7 +20063,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20205,7 +20205,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20416,7 +20416,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20556,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20771,7 +20771,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20844,7 +20844,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20976,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21049,7 +21049,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21118,7 +21118,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21183,7 +21183,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21256,7 +21256,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21329,7 +21329,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21402,7 +21402,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21621,7 +21621,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21684,7 +21684,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21737,7 +21737,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22076,7 +22076,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22352,7 +22352,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22494,7 +22494,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22628,7 +22628,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22770,7 +22770,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22916,7 +22916,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -22981,7 +22981,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23050,7 +23050,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23263,7 +23263,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23332,7 +23332,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23405,7 +23405,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23468,7 +23468,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23537,7 +23537,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23679,7 +23679,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23748,7 +23748,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24032,7 +24032,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24170,7 +24170,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24243,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24312,7 +24312,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24381,7 +24381,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24450,7 +24450,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24515,7 +24515,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24588,7 +24588,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24637,7 +24637,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24706,7 +24706,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24779,7 +24779,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24852,7 +24852,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -24994,7 +24994,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25063,7 +25063,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25183,7 +25183,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25256,7 +25256,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25321,7 +25321,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25394,7 +25394,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25536,7 +25536,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25609,7 +25609,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25682,7 +25682,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25751,7 +25751,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -25966,7 +25966,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26039,7 +26039,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26112,7 +26112,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26181,7 +26181,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26252,7 +26252,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26325,7 +26325,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26394,7 +26394,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26467,7 +26467,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26540,7 +26540,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26613,7 +26613,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26676,13 +26676,13 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26901,7 +26901,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -26974,7 +26974,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27047,7 +27047,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27120,7 +27120,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27193,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27412,7 +27412,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27485,7 +27485,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27550,7 +27550,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27613,7 +27613,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27901,7 +27901,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -27970,7 +27970,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28108,7 +28108,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28246,7 +28246,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28311,7 +28311,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28384,7 +28384,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28453,7 +28453,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28526,7 +28526,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28599,7 +28599,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28664,7 +28664,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28737,7 +28737,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28810,7 +28810,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28875,7 +28875,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -28948,7 +28948,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29021,7 +29021,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29167,7 +29167,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29309,7 +29309,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29378,7 +29378,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29431,7 +29431,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29504,7 +29504,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29577,7 +29577,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29650,7 +29650,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29723,7 +29723,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29792,7 +29792,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29863,7 +29863,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29936,7 +29936,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -29999,7 +29999,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30072,7 +30072,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30145,7 +30145,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30210,7 +30210,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30283,7 +30283,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30352,7 +30352,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30498,7 +30498,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30567,7 +30567,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30707,7 +30707,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30778,7 +30778,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30918,7 +30918,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -30991,7 +30991,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31058,7 +31058,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31267,7 +31267,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31334,7 +31334,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31407,7 +31407,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31480,7 +31480,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31547,7 +31547,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31616,7 +31616,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31685,7 +31685,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31758,7 +31758,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31831,7 +31831,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31852,7 +31852,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -31904,7 +31904,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -31977,7 +31977,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32046,7 +32046,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32111,7 +32111,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32184,7 +32184,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32237,7 +32237,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32310,7 +32310,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32383,7 +32383,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32456,7 +32456,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32507,7 +32507,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32580,7 +32580,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32653,7 +32653,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32726,7 +32726,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32795,7 +32795,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32868,7 +32868,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32933,7 +32933,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -32998,7 +32998,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33063,7 +33063,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33128,7 +33128,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33193,7 +33193,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33262,7 +33262,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33327,7 +33327,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33396,7 +33396,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33469,7 +33469,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33538,7 +33538,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33757,7 +33757,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33778,10 +33778,10 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E485" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -33830,7 +33830,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33903,7 +33903,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33976,7 +33976,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -33997,7 +33997,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E488" t="n">
         <v>4.5</v>
@@ -34049,7 +34049,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34122,7 +34122,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34268,7 +34268,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34331,7 +34331,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34400,7 +34400,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34457,7 +34457,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34528,7 +34528,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34591,7 +34591,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34656,7 +34656,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34729,7 +34729,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34802,7 +34802,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34875,7 +34875,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -34948,7 +34948,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35021,7 +35021,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35084,7 +35084,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35157,7 +35157,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35228,7 +35228,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35301,7 +35301,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35443,7 +35443,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35508,7 +35508,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35581,7 +35581,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35654,7 +35654,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35727,7 +35727,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35794,7 +35794,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35865,7 +35865,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -35934,7 +35934,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36005,7 +36005,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36076,7 +36076,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36147,7 +36147,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36214,7 +36214,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36281,7 +36281,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36332,7 +36332,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36399,7 +36399,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36464,7 +36464,7 @@
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36533,7 +36533,7 @@
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36600,7 +36600,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36665,7 +36665,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
@@ -36736,7 +36736,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-25 06:51:06</t>
+          <t>2023-01-25 12:58:24</t>
         </is>
       </c>
     </row>
